--- a/TP3/SegundoPonto/TASK-testes/Teste2.xlsx
+++ b/TP3/SegundoPonto/TASK-testes/Teste2.xlsx
@@ -56,10 +56,10 @@
     <t>Steps</t>
   </si>
   <si>
-    <t>62.73343497</t>
+    <t>9.219552219</t>
   </si>
   <si>
-    <t>0.09762023485</t>
+    <t>0.09523801363</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
       </c>
       <c r="K4">
         <f>SUM(I4:I104)</f>
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -578,7 +578,7 @@
         <v>10</v>
       </c>
       <c r="R7">
-        <v>48475</v>
+        <v>50034</v>
       </c>
     </row>
     <row r="8" spans="2:18" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -944,15 +944,15 @@
         <v>1</v>
       </c>
       <c r="E24" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1120,15 +1120,15 @@
         <v>1</v>
       </c>
       <c r="E32" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G32">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1186,15 +1186,15 @@
         <v>1</v>
       </c>
       <c r="E35" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G35">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1538,15 +1538,15 @@
         <v>1</v>
       </c>
       <c r="E51" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G51">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1560,15 +1560,15 @@
         <v>1</v>
       </c>
       <c r="E52" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G52">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1714,15 +1714,15 @@
         <v>1</v>
       </c>
       <c r="E59" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G59">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -1758,15 +1758,15 @@
         <v>1</v>
       </c>
       <c r="E61" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G61">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="I61">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2264,15 +2264,15 @@
         <v>1</v>
       </c>
       <c r="E84" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G84">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2352,15 +2352,15 @@
         <v>1</v>
       </c>
       <c r="E88" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G88">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2418,15 +2418,15 @@
         <v>1</v>
       </c>
       <c r="E91" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G91">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2484,15 +2484,15 @@
         <v>1</v>
       </c>
       <c r="E94" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G94">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
@@ -2638,15 +2638,15 @@
         <v>1</v>
       </c>
       <c r="E101" s="3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G101">
         <f t="shared" si="2"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101">
         <f t="shared" si="3"/>
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="2:9" ht="16" thickBot="1" x14ac:dyDescent="0.25">
